--- a/working_data/function_2_data.xlsx
+++ b/working_data/function_2_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="6">
   <si>
     <t>X_1</t>
   </si>
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,6 +787,34 @@
         <v>5</v>
       </c>
     </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>0.686686</v>
+      </c>
+      <c r="B29">
+        <v>0.91091</v>
+      </c>
+      <c r="C29">
+        <v>0.6335646007320983</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>0.689689</v>
+      </c>
+      <c r="B30">
+        <v>0.922922</v>
+      </c>
+      <c r="C30">
+        <v>0.6537665147703261</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/working_data/function_2_data.xlsx
+++ b/working_data/function_2_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="6">
   <si>
     <t>X_1</t>
   </si>
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -815,6 +815,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>0.673673</v>
+      </c>
+      <c r="B31">
+        <v>0.892892</v>
+      </c>
+      <c r="C31">
+        <v>0.5116643051909798</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/working_data/function_2_data.xlsx
+++ b/working_data/function_2_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="6">
   <si>
     <t>X_1</t>
   </si>
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -829,6 +829,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>0.711222</v>
+      </c>
+      <c r="B32">
+        <v>0.351031</v>
+      </c>
+      <c r="C32">
+        <v>0.6450697357507792</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/working_data/function_2_data.xlsx
+++ b/working_data/function_2_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="6">
   <si>
     <t>X_1</t>
   </si>
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -843,6 +843,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>0.716578</v>
+      </c>
+      <c r="B33">
+        <v>0.429259</v>
+      </c>
+      <c r="C33">
+        <v>0.5543995082585189</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
